--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_F97C1936BC8B647C42F964BE4937D84A3AF090F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1130581-E2FF-42B6-A878-557816978586}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_F97C1936BC8B647C42F964BE4937D84A3AF090F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9D72FA1-BA90-45FB-A098-FC143147EB8D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="3" r:id="rId1"/>
+    <sheet name="Test" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>TestCase</t>
   </si>
@@ -33,13 +34,43 @@
   </si>
   <si>
     <t>Cypress</t>
+  </si>
+  <si>
+    <t>TestSheetSelenium</t>
+  </si>
+  <si>
+    <t>TestSheetCypress</t>
+  </si>
+  <si>
+    <t>SampleColumn</t>
+  </si>
+  <si>
+    <t>SampleColumn1</t>
+  </si>
+  <si>
+    <t>SampleColumn2Value</t>
+  </si>
+  <si>
+    <t>SampleColumn3Value</t>
+  </si>
+  <si>
+    <t>SampleColumn4Value</t>
+  </si>
+  <si>
+    <t>SampleColumn5Value</t>
+  </si>
+  <si>
+    <t>testCase4</t>
+  </si>
+  <si>
+    <t>testCase5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +82,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,6 +153,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,12 +449,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -443,4 +485,80 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6BD509-8489-4434-96E8-9FD68923736E}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_F97C1936BC8B647C42F964BE4937D84A3AF090F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9D72FA1-BA90-45FB-A098-FC143147EB8D}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_F97C1936BC8B647C42F964BE4937D84A3AF090F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F29CD6FE-6D93-42BA-B0D8-260368BBE756}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>TestCase</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>testCase5</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
   </si>
 </sst>
 </file>
@@ -446,39 +449,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
